--- a/Code-Smell.service/test.xlsx
+++ b/Code-Smell.service/test.xlsx
@@ -3,30 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugoa\OneDrive\Ambiente de Trabalho\Uni\3º Ano\ES\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AED55879-6611-4E9E-A5E1-C67F41B22933}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{54E4F6EC-1710-4427-A144-55F50E9EC245}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{79514D70-B2AC-438A-9BEA-9D06ECFC4A7C}"/>
+    <workbookView xWindow="-22485" yWindow="2685" windowWidth="19290" windowHeight="9525" xr2:uid="{79514D70-B2AC-438A-9BEA-9D06ECFC4A7C}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -468,10 +456,16 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L10"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="22.85546875" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" customWidth="1"/>
+    <col min="11" max="11" width="20" customWidth="1"/>
+    <col min="12" max="12" width="16.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
